--- a/src/public/statistics/thong-ke-doanh-so-theo-ngay.xlsx
+++ b/src/public/statistics/thong-ke-doanh-so-theo-ngay.xlsx
@@ -375,19 +375,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>BẢNG THỐNG KÊ DOANH THU THEO NGÀY TỪ 1970-01-01 ĐẾN 1970-01-01</v>
+        <v>BẢNG THỐNG KÊ DOANH THU THEO THÁNG TỪ 2024-03-04 ĐẾN 2024-02-04</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>NGÀY</v>
+        <v>THÁNG</v>
       </c>
       <c r="B2" t="str">
         <v>Doanh thu (vnđ)</v>
@@ -395,9 +395,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1970-01-01</v>
+        <v>2023-12</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2024-01</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2024-02</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -406,7 +422,7 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
   </ignoredErrors>
 </worksheet>
 </file>